--- a/信息汇总.xlsx
+++ b/信息汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>序号</t>
   </si>
@@ -40,175 +40,223 @@
     <t>下载</t>
   </si>
   <si>
-    <t>关于推动我市快递服务业发展的几点思考</t>
-  </si>
-  <si>
-    <t>关于我市电子商务与快递物流协同发展的思考</t>
-  </si>
-  <si>
-    <t>坚持三个结合 促进宣传工作</t>
-  </si>
-  <si>
-    <t>烟台：污水也“得宠”</t>
-  </si>
-  <si>
-    <t>120座病险水库开始除险加固</t>
-  </si>
-  <si>
-    <t>三大水利体系服务新农村</t>
-  </si>
-  <si>
-    <t>十七大助燃信息化之火</t>
-  </si>
-  <si>
-    <t>胶东引黄调水省控工程基本完工</t>
-  </si>
-  <si>
-    <t>龙芯打响突围战</t>
-  </si>
-  <si>
-    <t>3C融合中国平板电视产业发展新机遇</t>
-  </si>
-  <si>
-    <t>综合防御应对垃圾邮件</t>
-  </si>
-  <si>
-    <t>在线服务软件前路漫长</t>
-  </si>
-  <si>
-    <t>教育PC市场悄然生变</t>
-  </si>
-  <si>
-    <t>必须聆听教育的声音</t>
-  </si>
-  <si>
-    <t>联想走在希望的田野上</t>
-  </si>
-  <si>
-    <t>主汛期：烟台防汛经受大考验</t>
-  </si>
-  <si>
-    <t>科研平台配“刀”而行</t>
-  </si>
-  <si>
-    <t>信息安全离我们还有多远？</t>
-  </si>
-  <si>
-    <t>校园网：安得妙手保安全？</t>
-  </si>
-  <si>
-    <t>网络安全 分而治之</t>
-  </si>
-  <si>
-    <t>黄昕</t>
-  </si>
-  <si>
-    <t>中华; 黄昕; 肖强</t>
-  </si>
-  <si>
-    <t>中华; 黄昕</t>
-  </si>
-  <si>
-    <t>中华;黄昕;立新</t>
-  </si>
-  <si>
-    <t>中华;黄昕;学军</t>
-  </si>
-  <si>
-    <t>黄昕;彭遂莅</t>
-  </si>
-  <si>
-    <t>新余日报</t>
-  </si>
-  <si>
-    <t>天水日报</t>
-  </si>
-  <si>
-    <t>中国水利报</t>
-  </si>
-  <si>
-    <t>烟台日报</t>
-  </si>
-  <si>
-    <t>中国电脑教育报</t>
-  </si>
-  <si>
-    <t>2020-09-21</t>
-  </si>
-  <si>
-    <t>2015-12-11</t>
-  </si>
-  <si>
-    <t>2010-06-12</t>
-  </si>
-  <si>
-    <t>2008-08-12</t>
-  </si>
-  <si>
-    <t>2008-04-08</t>
-  </si>
-  <si>
-    <t>2008-03-29</t>
-  </si>
-  <si>
-    <t>2007-11-26</t>
-  </si>
-  <si>
-    <t>2007-11-20</t>
-  </si>
-  <si>
-    <t>2007-11-19</t>
-  </si>
-  <si>
-    <t>2007-09-17</t>
-  </si>
-  <si>
-    <t>2007-09-10</t>
-  </si>
-  <si>
-    <t>2007-09-03</t>
-  </si>
-  <si>
-    <t>2007-08-27</t>
-  </si>
-  <si>
-    <t>报纸</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>65</t>
+    <t>室内高精度定位技术研究应用现状与发展趋势 网络首发</t>
+  </si>
+  <si>
+    <t>从珞珈系列卫星到东方慧眼星座 网络首发</t>
+  </si>
+  <si>
+    <t>当我们谈论数据主权时我们在谈论什么？——从文献综述出发 网络首发</t>
+  </si>
+  <si>
+    <t>先秦儒家“乐通伦理”对现代伦理文明建构的影响 网络首发</t>
+  </si>
+  <si>
+    <t>服务高质量发展的国土空间治理学科体系构建探讨 网络首发</t>
+  </si>
+  <si>
+    <t>遥感大模型：进展与前瞻 网络首发</t>
+  </si>
+  <si>
+    <t>流动人口再流动的空间选择特征及影响因素 网络首发</t>
+  </si>
+  <si>
+    <t>乙酰葛根素纳米制剂联合Wnt/β-catenin信号通路在大鼠脑缺血再灌注损伤模型中调节自噬发挥神经保护作用 网络首发</t>
+  </si>
+  <si>
+    <t>实验室模拟连续电流与通道光强度关系研究 网络首发</t>
+  </si>
+  <si>
+    <t>交互与沉浸:岭南红色文化特色小镇的多频道网络叙事研究 网络首发</t>
+  </si>
+  <si>
+    <t>扫除“文盲”与“政治盲”:根据地解放区冬学课本的编印策略与内在逻辑 网络首发</t>
+  </si>
+  <si>
+    <t>出版学研究的史学视角 网络首发</t>
+  </si>
+  <si>
+    <t>清代史学的近代误读与校验</t>
+  </si>
+  <si>
+    <t>基于众源轨迹的OSM路网转向信息增强</t>
+  </si>
+  <si>
+    <t>特高压交流线路非接触式验电器研制与应用</t>
+  </si>
+  <si>
+    <t>第12-15届健美操世锦赛有氧舞蹈项目前5名成绩分析</t>
+  </si>
+  <si>
+    <t>方舱医院移动手术车的设计管理研究</t>
+  </si>
+  <si>
+    <t>听神经瘤患者术后听力保留的影响因素分析及其预测模型构建 网络首发</t>
+  </si>
+  <si>
+    <t>作为平台的村庄:资本下乡“经营村庄”及其后果 网络首发</t>
+  </si>
+  <si>
+    <t>中国对外关系立法的里程碑——论中国首部《对外关系法》应运而生的时代背景、重大意义、系统集成和守正创新 网络首发</t>
+  </si>
+  <si>
+    <t>陈锐志;郭光毅;陈亮;牛晓光</t>
+  </si>
+  <si>
+    <t>李德仁</t>
+  </si>
+  <si>
+    <t>刘妍</t>
+  </si>
+  <si>
+    <t>李建华;肖潇</t>
+  </si>
+  <si>
+    <t>刘经南;刘耀林;刘殿锋;何建华;江平</t>
+  </si>
+  <si>
+    <t>张良培;张乐飞;袁强强</t>
+  </si>
+  <si>
+    <t>林赛南;冯馨;王雨</t>
+  </si>
+  <si>
+    <t>杜立;杨振兴;孙倩</t>
+  </si>
+  <si>
+    <t>周蜜;左芯睿;范雅蓓;范昊深;蔡力</t>
+  </si>
+  <si>
+    <t>毕伟;梁悦;吴琼</t>
+  </si>
+  <si>
+    <t>郭艳红;李贝贝</t>
+  </si>
+  <si>
+    <t>方卿</t>
+  </si>
+  <si>
+    <t>谢贵安</t>
+  </si>
+  <si>
+    <t>陈欣;向隆刚;焦凤伟</t>
+  </si>
+  <si>
+    <t>帅伟;郑秋玮;刘庭;张博</t>
+  </si>
+  <si>
+    <t>侯光定;曹旭艳;李锐</t>
+  </si>
+  <si>
+    <t>应朝宇;陈艳;程时栋</t>
+  </si>
+  <si>
+    <t>续珊;钟典;华清泉;查婷婷;任杰</t>
+  </si>
+  <si>
+    <t>雒珊</t>
+  </si>
+  <si>
+    <t>黄惠康</t>
+  </si>
+  <si>
+    <t>武汉大学学报(信息科学版)</t>
+  </si>
+  <si>
+    <t>图书情报知识</t>
+  </si>
+  <si>
+    <t>江苏社会科学</t>
+  </si>
+  <si>
+    <t>地理科学</t>
+  </si>
+  <si>
+    <t>武汉大学学报(医学版)</t>
+  </si>
+  <si>
+    <t>高电压技术</t>
+  </si>
+  <si>
+    <t>出版科学</t>
+  </si>
+  <si>
+    <t>湖北大学学报(哲学社会科学版)</t>
+  </si>
+  <si>
+    <t>地球信息科学学报</t>
+  </si>
+  <si>
+    <t>四川体育科学</t>
+  </si>
+  <si>
+    <t>中国急救复苏与灾害医学杂志</t>
+  </si>
+  <si>
+    <t>听力学及言语疾病杂志</t>
+  </si>
+  <si>
+    <t>中国农业大学学报(社会科学版)</t>
+  </si>
+  <si>
+    <t>武大国际法评论</t>
+  </si>
+  <si>
+    <t>2023-09-21 09:21</t>
+  </si>
+  <si>
+    <t>2023-09-20 14:36</t>
+  </si>
+  <si>
+    <t>2023-09-20 14:20</t>
+  </si>
+  <si>
+    <t>2023-09-20 13:54</t>
+  </si>
+  <si>
+    <t>2023-09-20 13:50</t>
+  </si>
+  <si>
+    <t>2023-09-20 13:48</t>
+  </si>
+  <si>
+    <t>2023-09-20 12:32</t>
+  </si>
+  <si>
+    <t>2023-09-20 12:25</t>
+  </si>
+  <si>
+    <t>2023-09-20 11:18</t>
+  </si>
+  <si>
+    <t>2023-09-20 09:58</t>
+  </si>
+  <si>
+    <t>2023-09-20 09:46</t>
+  </si>
+  <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>2023-09-19 16:56</t>
+  </si>
+  <si>
+    <t>2023-09-19 14:59</t>
+  </si>
+  <si>
+    <t>2023-09-19 14:42</t>
+  </si>
+  <si>
+    <t>期刊</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
 </sst>
 </file>
@@ -612,16 +660,13 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -635,19 +680,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -661,19 +703,16 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -687,19 +726,16 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -713,19 +749,16 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -739,19 +772,16 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -765,19 +795,16 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -791,19 +818,16 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -817,19 +841,16 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -843,19 +864,16 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -869,19 +887,16 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -895,19 +910,16 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -921,19 +933,16 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -947,19 +956,16 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -973,19 +979,16 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -999,19 +1002,16 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1025,19 +1025,16 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1051,19 +1048,19 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1077,19 +1074,19 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1103,19 +1100,19 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
